--- a/WorkersReport.xlsx
+++ b/WorkersReport.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>User ID</t>
   </si>
   <si>
-    <t>HIT ID</t>
-  </si>
-  <si>
     <t>Skill Score</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
     <t>Age</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>Years progr.</t>
   </si>
   <si>
@@ -53,43 +53,82 @@
     <t>Feedback</t>
   </si>
   <si>
-    <t>dcardos</t>
-  </si>
-  <si>
-    <t>3990</t>
+    <t>3</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>Not</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>researcher</t>
   </si>
   <si>
     <t>No Answer</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>333</t>
+    <t>5</t>
   </si>
   <si>
     <t>Prefer not to tell</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>EAAAAAAAAAAAAAAASSY</t>
-  </si>
-  <si>
-    <t>dabb</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>gugu</t>
   </si>
 </sst>
 </file>
@@ -140,15 +179,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.9453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="3.52734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="3.52734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="3.52734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.16796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="3.52734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.65234375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="10.65234375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="11.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="10.65234375" customWidth="true" bestFit="true"/>
@@ -201,103 +240,236 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+      <c r="B2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="n">
         <v>0.0</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/WorkersReport.xlsx
+++ b/WorkersReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>User ID</t>
   </si>
@@ -59,76 +59,85 @@
     <t>OK</t>
   </si>
   <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Prefer not to tell</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>I'm too old for this</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>ok ok</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>gana</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t>No Answer</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>researcher</t>
-  </si>
-  <si>
-    <t>No Answer</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Prefer not to tell</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>jp</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>eh</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>gugu</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -184,7 +193,7 @@
     <col min="3" max="3" width="3.52734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="3.52734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.52734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.16796875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="3.52734375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.65234375" customWidth="true" bestFit="true"/>
@@ -241,7 +250,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -253,36 +262,36 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -294,74 +303,74 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -372,104 +381,104 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/WorkersReport.xlsx
+++ b/WorkersReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="65">
   <si>
     <t>User ID</t>
   </si>
@@ -53,91 +53,160 @@
     <t>Feedback</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t>No Answer</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Not</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Prefer not to tell</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>tk</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>brazil</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>I'm too old for this</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>ok ok</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Gana</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Easy!</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seemed reseanable </t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>gana</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>researcher</t>
-  </si>
-  <si>
-    <t>No Answer</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>India</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Russia</t>
   </si>
 </sst>
 </file>
@@ -190,11 +259,11 @@
   <cols>
     <col min="1" max="1" width="10.45703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="3.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.16796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.16796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.16796875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.52734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.16796875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.65234375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="10.65234375" customWidth="true" bestFit="true"/>
@@ -280,131 +349,131 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -416,69 +485,438 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="n">
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
         <v>4.0</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/WorkersReport.xlsx
+++ b/WorkersReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="65">
   <si>
     <t>User ID</t>
   </si>
@@ -53,58 +53,160 @@
     <t>Feedback</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t>No Answer</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Prefer not to tell</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>brazil</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Gana</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Easy!</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seemed reseanable </t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>researcher</t>
-  </si>
-  <si>
-    <t>No Answer</t>
+    <t>India</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Russia</t>
   </si>
 </sst>
 </file>
@@ -157,12 +259,12 @@
   <cols>
     <col min="1" max="1" width="10.45703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="3.52734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="4.16796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.16796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.16796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.16796875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.65234375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="10.65234375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="11.7890625" customWidth="true" bestFit="true"/>
@@ -217,7 +319,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -229,69 +331,59 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -317,22 +409,22 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
       </c>
       <c r="L4" t="s">
         <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -340,30 +432,491 @@
         <v>29</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
